--- a/data/2023/fid/FID-NORD-DE-8.xlsx
+++ b/data/2023/fid/FID-NORD-DE-8.xlsx
@@ -127,6 +127,12 @@
     <t>1.1977 -</t>
   </si>
   <si>
+    <t>DE-8</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -248,12 +254,6 @@
   </si>
   <si>
     <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>DE-8</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>4</t>
@@ -3130,16 +3130,16 @@
         <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
         <v>32</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -3156,13 +3156,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3171,13 +3171,13 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -3195,10 +3195,10 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -3207,16 +3207,16 @@
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -3233,16 +3233,16 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -3251,7 +3251,7 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -3275,7 +3275,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -3284,16 +3284,16 @@
         <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3310,13 +3310,13 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -3325,13 +3325,13 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -3352,7 +3352,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -3361,24 +3361,24 @@
         <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s">
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -3387,13 +3387,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -3402,13 +3402,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -3429,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -3447,7 +3447,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -3464,28 +3464,28 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -3506,7 +3506,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -3515,10 +3515,10 @@
         <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
@@ -3550,7 +3550,7 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -3601,7 +3601,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -3624,7 +3624,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -3678,7 +3678,7 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s">
         <v>32</v>
@@ -3755,7 +3755,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
@@ -3832,7 +3832,7 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s">
         <v>32</v>
@@ -3977,16 +3977,16 @@
         <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -4054,10 +4054,10 @@
         <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s">
         <v>32</v>
@@ -4086,7 +4086,7 @@
         <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -4098,7 +4098,7 @@
         <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
@@ -4240,7 +4240,7 @@
         <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -4317,7 +4317,7 @@
         <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -4371,7 +4371,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s">
         <v>32</v>
@@ -4448,7 +4448,7 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -4474,7 +4474,7 @@
         <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -4525,7 +4525,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -4548,7 +4548,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>181</v>
@@ -4670,16 +4670,16 @@
         <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s">
         <v>32</v>
@@ -4702,7 +4702,7 @@
         <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -4779,7 +4779,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
         <v>205</v>
@@ -4856,7 +4856,7 @@
         <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
         <v>216</v>
@@ -4901,16 +4901,16 @@
         <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s">
         <v>32</v>
@@ -4933,7 +4933,7 @@
         <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -4948,7 +4948,7 @@
         <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -5013,7 +5013,7 @@
         <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -5064,7 +5064,7 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>234</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
         <v>181</v>
@@ -5164,7 +5164,7 @@
         <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -5244,7 +5244,7 @@
         <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -5286,16 +5286,16 @@
         <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s">
         <v>32</v>
@@ -5363,16 +5363,16 @@
         <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -5395,7 +5395,7 @@
         <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
         <v>181</v>
@@ -5626,7 +5626,7 @@
         <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -5703,7 +5703,7 @@
         <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
         <v>181</v>
@@ -5780,7 +5780,7 @@
         <v>297</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
         <v>298</v>
@@ -5834,7 +5834,7 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s">
         <v>32</v>
@@ -5860,7 +5860,7 @@
         <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
@@ -5902,16 +5902,16 @@
         <v>32</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y38" t="s">
         <v>32</v>
@@ -5979,16 +5979,16 @@
         <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y39" t="s">
         <v>32</v>
@@ -6023,7 +6023,7 @@
         <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
         <v>316</v>
@@ -6142,7 +6142,7 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y41" t="s">
         <v>32</v>
@@ -6210,16 +6210,16 @@
         <v>32</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y42" t="s">
         <v>32</v>
@@ -6242,10 +6242,10 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -6296,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s">
         <v>32</v>
@@ -6319,10 +6319,10 @@
         <v>340</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -6373,7 +6373,7 @@
         <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y44" t="s">
         <v>32</v>
@@ -6441,16 +6441,16 @@
         <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y45" t="s">
         <v>32</v>
@@ -6473,7 +6473,7 @@
         <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -6681,7 +6681,7 @@
         <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y48" t="s">
         <v>32</v>
@@ -6781,7 +6781,7 @@
         <v>376</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -6826,16 +6826,16 @@
         <v>32</v>
       </c>
       <c r="U50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s">
         <v>32</v>
@@ -6861,7 +6861,7 @@
         <v>383</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -6912,7 +6912,7 @@
         <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y51" t="s">
         <v>32</v>
@@ -7015,7 +7015,7 @@
         <v>396</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -7057,16 +7057,16 @@
         <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V53" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s">
         <v>32</v>
@@ -7089,7 +7089,7 @@
         <v>401</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
@@ -7143,7 +7143,7 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y54" t="s">
         <v>32</v>
@@ -7166,7 +7166,7 @@
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -7297,7 +7297,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y56" t="s">
         <v>32</v>
@@ -7442,16 +7442,16 @@
         <v>32</v>
       </c>
       <c r="U58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y58" t="s">
         <v>32</v>
@@ -7519,16 +7519,16 @@
         <v>32</v>
       </c>
       <c r="U59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y59" t="s">
         <v>32</v>
@@ -7551,7 +7551,7 @@
         <v>438</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
         <v>181</v>
@@ -7605,7 +7605,7 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s">
         <v>32</v>
@@ -7673,16 +7673,16 @@
         <v>32</v>
       </c>
       <c r="U61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y61" t="s">
         <v>32</v>
@@ -7705,7 +7705,7 @@
         <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
         <v>181</v>
@@ -7759,7 +7759,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y62" t="s">
         <v>32</v>
@@ -7782,7 +7782,7 @@
         <v>459</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>216</v>
@@ -7827,16 +7827,16 @@
         <v>32</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y63" t="s">
         <v>32</v>
@@ -7904,16 +7904,16 @@
         <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y64" t="s">
         <v>32</v>
@@ -7936,7 +7936,7 @@
         <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -7990,7 +7990,7 @@
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y65" t="s">
         <v>32</v>
@@ -8090,7 +8090,7 @@
         <v>478</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -8135,10 +8135,10 @@
         <v>32</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V67" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W67" t="s">
         <v>32</v>
@@ -8167,7 +8167,7 @@
         <v>197</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>113</v>
@@ -8179,10 +8179,10 @@
         <v>485</v>
       </c>
       <c r="J68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -8212,10 +8212,10 @@
         <v>32</v>
       </c>
       <c r="U68" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V68" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W68" t="s">
         <v>32</v>
@@ -8298,7 +8298,7 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y69" t="s">
         <v>32</v>
@@ -8366,16 +8366,16 @@
         <v>32</v>
       </c>
       <c r="U70" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y70" t="s">
         <v>32</v>
@@ -8443,10 +8443,10 @@
         <v>32</v>
       </c>
       <c r="U71" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V71" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W71" t="s">
         <v>32</v>
@@ -8529,7 +8529,7 @@
         <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y72" t="s">
         <v>32</v>
@@ -8597,16 +8597,16 @@
         <v>32</v>
       </c>
       <c r="U73" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V73" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W73" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y73" t="s">
         <v>32</v>
@@ -8629,10 +8629,10 @@
         <v>525</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
@@ -8683,7 +8683,7 @@
         <v>32</v>
       </c>
       <c r="X74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y74" t="s">
         <v>32</v>
@@ -8706,7 +8706,7 @@
         <v>152</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -8751,16 +8751,16 @@
         <v>32</v>
       </c>
       <c r="U75" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V75" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W75" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y75" t="s">
         <v>32</v>
@@ -8786,7 +8786,7 @@
         <v>505</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
@@ -8828,16 +8828,16 @@
         <v>32</v>
       </c>
       <c r="U76" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V76" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W76" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y76" t="s">
         <v>32</v>
@@ -8860,7 +8860,7 @@
         <v>133</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -8937,7 +8937,7 @@
         <v>133</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -8982,16 +8982,16 @@
         <v>32</v>
       </c>
       <c r="U78" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V78" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W78" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y78" t="s">
         <v>32</v>
@@ -9059,16 +9059,16 @@
         <v>32</v>
       </c>
       <c r="U79" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V79" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W79" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y79" t="s">
         <v>32</v>
@@ -9094,7 +9094,7 @@
         <v>557</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
@@ -9136,16 +9136,16 @@
         <v>32</v>
       </c>
       <c r="U80" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y80" t="s">
         <v>32</v>
@@ -9168,7 +9168,7 @@
         <v>561</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -9213,10 +9213,10 @@
         <v>137</v>
       </c>
       <c r="U81" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V81" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W81" t="s">
         <v>32</v>
@@ -9245,7 +9245,7 @@
         <v>133</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
         <v>31</v>
@@ -9290,16 +9290,16 @@
         <v>32</v>
       </c>
       <c r="U82" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V82" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W82" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y82" t="s">
         <v>32</v>
@@ -9322,7 +9322,7 @@
         <v>133</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -9399,7 +9399,7 @@
         <v>133</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -9476,7 +9476,7 @@
         <v>133</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
         <v>31</v>
@@ -9553,7 +9553,7 @@
         <v>133</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -9598,16 +9598,16 @@
         <v>32</v>
       </c>
       <c r="U86" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V86" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W86" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y86" t="s">
         <v>32</v>
@@ -9630,7 +9630,7 @@
         <v>133</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -9675,16 +9675,16 @@
         <v>32</v>
       </c>
       <c r="U87" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V87" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W87" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y87" t="s">
         <v>32</v>
@@ -9707,7 +9707,7 @@
         <v>133</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -9761,7 +9761,7 @@
         <v>32</v>
       </c>
       <c r="X88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y88" t="s">
         <v>32</v>
@@ -9784,7 +9784,7 @@
         <v>133</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -9829,16 +9829,16 @@
         <v>32</v>
       </c>
       <c r="U89" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V89" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W89" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y89" t="s">
         <v>32</v>
@@ -9855,13 +9855,13 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E90" t="s">
         <v>133</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -9873,7 +9873,7 @@
         <v>615</v>
       </c>
       <c r="J90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K90" t="s">
         <v>35</v>
@@ -9906,16 +9906,16 @@
         <v>32</v>
       </c>
       <c r="U90" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V90" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W90" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y90" t="s">
         <v>32</v>
@@ -9938,7 +9938,7 @@
         <v>133</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -9983,16 +9983,16 @@
         <v>32</v>
       </c>
       <c r="U91" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V91" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W91" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y91" t="s">
         <v>32</v>
@@ -10015,7 +10015,7 @@
         <v>133</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -10060,16 +10060,16 @@
         <v>32</v>
       </c>
       <c r="U92" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V92" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W92" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y92" t="s">
         <v>32</v>
@@ -10092,7 +10092,7 @@
         <v>133</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
         <v>31</v>
@@ -10104,7 +10104,7 @@
         <v>631</v>
       </c>
       <c r="J93" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K93" t="s">
         <v>35</v>
@@ -10169,7 +10169,7 @@
         <v>133</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -10181,7 +10181,7 @@
         <v>637</v>
       </c>
       <c r="J94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K94" t="s">
         <v>35</v>
@@ -10214,16 +10214,16 @@
         <v>32</v>
       </c>
       <c r="U94" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V94" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W94" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y94" t="s">
         <v>32</v>
@@ -10246,7 +10246,7 @@
         <v>133</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -10291,16 +10291,16 @@
         <v>32</v>
       </c>
       <c r="U95" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V95" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W95" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y95" t="s">
         <v>32</v>
@@ -10323,7 +10323,7 @@
         <v>133</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -10377,7 +10377,7 @@
         <v>32</v>
       </c>
       <c r="X96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y96" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>133</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -10454,7 +10454,7 @@
         <v>32</v>
       </c>
       <c r="X97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y97" t="s">
         <v>32</v>
@@ -10477,7 +10477,7 @@
         <v>133</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -10554,7 +10554,7 @@
         <v>133</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -10631,7 +10631,7 @@
         <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>31</v>
@@ -10708,7 +10708,7 @@
         <v>133</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
@@ -10762,7 +10762,7 @@
         <v>32</v>
       </c>
       <c r="X101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y101" t="s">
         <v>32</v>
@@ -10785,7 +10785,7 @@
         <v>133</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -10830,16 +10830,16 @@
         <v>32</v>
       </c>
       <c r="U102" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V102" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W102" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y102" t="s">
         <v>32</v>
@@ -10862,7 +10862,7 @@
         <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -10907,16 +10907,16 @@
         <v>32</v>
       </c>
       <c r="U103" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V103" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W103" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y103" t="s">
         <v>32</v>
@@ -10939,7 +10939,7 @@
         <v>133</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
         <v>31</v>
@@ -10993,7 +10993,7 @@
         <v>32</v>
       </c>
       <c r="X104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y104" t="s">
         <v>32</v>
@@ -11016,7 +11016,7 @@
         <v>133</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -11070,7 +11070,7 @@
         <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y105" t="s">
         <v>32</v>
@@ -11093,7 +11093,7 @@
         <v>133</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -11138,16 +11138,16 @@
         <v>32</v>
       </c>
       <c r="U106" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V106" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W106" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y106" t="s">
         <v>32</v>
@@ -11170,7 +11170,7 @@
         <v>133</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>
@@ -11215,16 +11215,16 @@
         <v>32</v>
       </c>
       <c r="U107" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V107" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W107" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y107" t="s">
         <v>32</v>
@@ -11247,7 +11247,7 @@
         <v>133</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -11324,7 +11324,7 @@
         <v>133</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -11336,7 +11336,7 @@
         <v>716</v>
       </c>
       <c r="J109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K109" t="s">
         <v>35</v>
@@ -11369,16 +11369,16 @@
         <v>32</v>
       </c>
       <c r="U109" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V109" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W109" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y109" t="s">
         <v>32</v>
@@ -11401,7 +11401,7 @@
         <v>133</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -11413,7 +11413,7 @@
         <v>721</v>
       </c>
       <c r="J110" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K110" t="s">
         <v>35</v>
@@ -11455,7 +11455,7 @@
         <v>32</v>
       </c>
       <c r="X110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y110" t="s">
         <v>32</v>
@@ -11478,7 +11478,7 @@
         <v>133</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -11490,7 +11490,7 @@
         <v>726</v>
       </c>
       <c r="J111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K111" t="s">
         <v>35</v>
@@ -11532,7 +11532,7 @@
         <v>32</v>
       </c>
       <c r="X111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y111" t="s">
         <v>32</v>
@@ -11555,7 +11555,7 @@
         <v>133</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -11567,7 +11567,7 @@
         <v>731</v>
       </c>
       <c r="J112" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K112" t="s">
         <v>35</v>
@@ -11600,16 +11600,16 @@
         <v>32</v>
       </c>
       <c r="U112" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V112" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W112" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y112" t="s">
         <v>32</v>
@@ -11632,7 +11632,7 @@
         <v>133</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
@@ -11644,7 +11644,7 @@
         <v>736</v>
       </c>
       <c r="J113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K113" t="s">
         <v>35</v>
@@ -11677,16 +11677,16 @@
         <v>32</v>
       </c>
       <c r="U113" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V113" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W113" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y113" t="s">
         <v>32</v>
@@ -11709,7 +11709,7 @@
         <v>133</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -11721,7 +11721,7 @@
         <v>741</v>
       </c>
       <c r="J114" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K114" t="s">
         <v>35</v>
@@ -11754,16 +11754,16 @@
         <v>32</v>
       </c>
       <c r="U114" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V114" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W114" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y114" t="s">
         <v>32</v>
@@ -11786,7 +11786,7 @@
         <v>133</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
         <v>31</v>
@@ -11863,7 +11863,7 @@
         <v>133</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
         <v>31</v>
@@ -11940,7 +11940,7 @@
         <v>133</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11985,16 +11985,16 @@
         <v>32</v>
       </c>
       <c r="U117" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V117" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W117" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y117" t="s">
         <v>32</v>
@@ -12017,7 +12017,7 @@
         <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
         <v>31</v>
@@ -12029,7 +12029,7 @@
         <v>762</v>
       </c>
       <c r="J118" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K118" t="s">
         <v>35</v>
@@ -12062,16 +12062,16 @@
         <v>32</v>
       </c>
       <c r="U118" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V118" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W118" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y118" t="s">
         <v>32</v>
@@ -12094,7 +12094,7 @@
         <v>133</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
@@ -12106,7 +12106,7 @@
         <v>767</v>
       </c>
       <c r="J119" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K119" t="s">
         <v>35</v>
@@ -12139,16 +12139,16 @@
         <v>32</v>
       </c>
       <c r="U119" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V119" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W119" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y119" t="s">
         <v>32</v>
@@ -12171,7 +12171,7 @@
         <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
@@ -12183,7 +12183,7 @@
         <v>772</v>
       </c>
       <c r="J120" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K120" t="s">
         <v>35</v>
@@ -12225,7 +12225,7 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y120" t="s">
         <v>32</v>
@@ -12248,7 +12248,7 @@
         <v>133</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>31</v>
@@ -12293,16 +12293,16 @@
         <v>32</v>
       </c>
       <c r="U121" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V121" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W121" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y121" t="s">
         <v>32</v>
@@ -12325,7 +12325,7 @@
         <v>133</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -12524,10 +12524,10 @@
         <v>32</v>
       </c>
       <c r="U124" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V124" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W124" t="s">
         <v>32</v>
@@ -12601,16 +12601,16 @@
         <v>32</v>
       </c>
       <c r="U125" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V125" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W125" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y125" t="s">
         <v>32</v>
@@ -12687,7 +12687,7 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y126" t="s">
         <v>32</v>
@@ -12722,7 +12722,7 @@
         <v>814</v>
       </c>
       <c r="J127" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K127" t="s">
         <v>35</v>
@@ -12755,16 +12755,16 @@
         <v>32</v>
       </c>
       <c r="U127" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V127" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W127" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y127" t="s">
         <v>32</v>
@@ -12790,7 +12790,7 @@
         <v>820</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -12832,16 +12832,16 @@
         <v>32</v>
       </c>
       <c r="U128" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y128" t="s">
         <v>32</v>
@@ -12867,7 +12867,7 @@
         <v>827</v>
       </c>
       <c r="G129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H129" t="s">
         <v>32</v>
@@ -12909,10 +12909,10 @@
         <v>32</v>
       </c>
       <c r="U129" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V129" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W129" t="s">
         <v>32</v>
@@ -12986,16 +12986,16 @@
         <v>32</v>
       </c>
       <c r="U130" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V130" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W130" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y130" t="s">
         <v>32</v>
@@ -13021,7 +13021,7 @@
         <v>838</v>
       </c>
       <c r="G131" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -13063,16 +13063,16 @@
         <v>32</v>
       </c>
       <c r="U131" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V131" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W131" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y131" t="s">
         <v>32</v>
@@ -13095,7 +13095,7 @@
         <v>197</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -13172,7 +13172,7 @@
         <v>853</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -13217,16 +13217,16 @@
         <v>32</v>
       </c>
       <c r="U133" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y133" t="s">
         <v>32</v>
@@ -13249,7 +13249,7 @@
         <v>152</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
@@ -13294,16 +13294,16 @@
         <v>32</v>
       </c>
       <c r="U134" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V134" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W134" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y134" t="s">
         <v>32</v>
@@ -13371,16 +13371,16 @@
         <v>32</v>
       </c>
       <c r="U135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V135" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W135" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y135" t="s">
         <v>32</v>
@@ -13403,7 +13403,7 @@
         <v>865</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
         <v>866</v>
@@ -13448,10 +13448,10 @@
         <v>137</v>
       </c>
       <c r="U136" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V136" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W136" t="s">
         <v>32</v>
@@ -13525,16 +13525,16 @@
         <v>32</v>
       </c>
       <c r="U137" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V137" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W137" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y137" t="s">
         <v>32</v>
